--- a/komoditas_termahal.xlsx
+++ b/komoditas_termahal.xlsx
@@ -448,144 +448,144 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cabai Merah Keriting</t>
+          <t>Minyak Kita</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rp 521.800,00</t>
+          <t>Rp 22.167,00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Daging Sapi Murni</t>
+          <t>Tepung Terigu Curah</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rp 172.421,00</t>
+          <t>Rp 26.710,00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Daging Kerbau Segar (Lokal)</t>
+          <t>Kedelai Biji Kering</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rp 160.794,00</t>
+          <t>Rp 28.713,00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Daging Kerbau Beku (Impor)</t>
+          <t>Jagung Tingkat Peternak</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rp 150.000,00</t>
+          <t>Rp 29.038,00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cabai Merah Besar</t>
+          <t>Beras Medium</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rp 140.000,00</t>
+          <t>Rp 29.167,00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cabai Rawit Merah</t>
+          <t>Beras Premium</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rp 138.144,00</t>
+          <t>Rp 30.000,00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Telur Ayam Ras</t>
+          <t>Minyak Goreng Curah</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rp 117.500,00</t>
+          <t>Rp 30.000,00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ikan Kembung</t>
+          <t>Garam Konsumsi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rp 100.000,00</t>
+          <t>Rp 33.967,00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ikan Tongkol</t>
+          <t>Beras SPHP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rp 100.000,00</t>
+          <t>Rp 37.500,00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ikan Bandeng</t>
+          <t>Tepung Terigu Kemasan</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rp 100.000,00</t>
+          <t>Rp 40.000,00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bawang Putih (Bonggol)</t>
+          <t>Gula Pasir Lokal/Curah</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rp 97.500,00</t>
+          <t>Rp 40.500,00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bawang Merah</t>
+          <t>Minyak Goreng Kemasan</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Rp 90.000,00</t>
+          <t>Rp 53.750,00</t>
         </is>
       </c>
     </row>
@@ -604,144 +604,144 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Minyak Goreng Kemasan</t>
+          <t>Bawang Merah</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Rp 53.750,00</t>
+          <t>Rp 90.000,00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Gula Pasir Lokal/Curah</t>
+          <t>Bawang Putih (Bonggol)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Rp 40.500,00</t>
+          <t>Rp 97.500,00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Tepung Terigu Kemasan</t>
+          <t>Ikan Kembung</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Rp 40.000,00</t>
+          <t>Rp 100.000,00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Beras SPHP</t>
+          <t>Ikan Bandeng</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Rp 37.500,00</t>
+          <t>Rp 100.000,00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Garam Konsumsi</t>
+          <t>Ikan Tongkol</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Rp 33.967,00</t>
+          <t>Rp 100.000,00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Beras Premium</t>
+          <t>Telur Ayam Ras</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Rp 30.000,00</t>
+          <t>Rp 117.500,00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Minyak Goreng Curah</t>
+          <t>Cabai Rawit Merah</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Rp 30.000,00</t>
+          <t>Rp 138.144,00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Beras Medium</t>
+          <t>Cabai Merah Besar</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Rp 29.167,00</t>
+          <t>Rp 140.000,00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Jagung Tingkat Peternak</t>
+          <t>Daging Kerbau Beku (Impor)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Rp 29.038,00</t>
+          <t>Rp 150.000,00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Kedelai Biji Kering</t>
+          <t>Daging Kerbau Segar (Lokal)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Rp 28.713,00</t>
+          <t>Rp 160.794,00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Tepung Terigu Curah</t>
+          <t>Daging Sapi Murni</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Rp 26.710,00</t>
+          <t>Rp 172.421,00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Minyak Kita</t>
+          <t>Cabai Merah Keriting</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Rp 22.167,00</t>
+          <t>Rp 521.800,00</t>
         </is>
       </c>
     </row>
